--- a/project/OtherAssets/Excle/A_Default/普通顾客.xlsx
+++ b/project/OtherAssets/Excle/A_Default/普通顾客.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\svn\project\OtherAssets\Excle\A_Default\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3E815B-09B1-46DA-BAE0-56AF9A21A5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerNormal" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>China</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>China:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -71,407 +63,14 @@
     <t>没有解锁时显示的介绍</t>
   </si>
   <si>
-    <t>角色名字</t>
-  </si>
-  <si>
-    <t>资源链接</t>
-  </si>
-  <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>解锁条件（必须解锁的摊位I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>解锁条件（必须解锁的设施ID）</t>
-  </si>
-  <si>
-    <t>解锁条件（必须解锁的装饰ID）</t>
-  </si>
-  <si>
-    <t>必去的摊位id</t>
-  </si>
-  <si>
-    <t>二次拿餐盘的概率</t>
-  </si>
-  <si>
-    <t>三次那餐盘的概率</t>
-  </si>
-  <si>
-    <t>买完食物去餐厅的概率</t>
-  </si>
-  <si>
-    <t>给小费数量（餐费的倍数）</t>
-  </si>
-  <si>
-    <t>给小费的概率</t>
-  </si>
-  <si>
-    <t>图标名字</t>
-  </si>
-  <si>
-    <t>ID_i</t>
-  </si>
-  <si>
-    <t>bz_s</t>
-  </si>
-  <si>
-    <t>CreatWeight_i</t>
-  </si>
-  <si>
-    <t>Name_iam</t>
-  </si>
-  <si>
-    <t>LockIntro_iam</t>
-  </si>
-  <si>
-    <t>Intro_iam</t>
-  </si>
-  <si>
-    <t>RoleName_S</t>
-  </si>
-  <si>
-    <t>Path_s</t>
-  </si>
-  <si>
-    <t>StallCondit_iam</t>
-  </si>
-  <si>
-    <t>EquipCondit_iam</t>
-  </si>
-  <si>
-    <t>AdornCondit_iam</t>
-  </si>
-  <si>
-    <t>MustGoStall_i</t>
-  </si>
-  <si>
-    <t>SecondMlRatio_i</t>
-  </si>
-  <si>
-    <t>ThreeTimesMRatio_i</t>
-  </si>
-  <si>
-    <t>MealRatio_iam</t>
-  </si>
-  <si>
-    <t>BuyFoodNum_iam</t>
-  </si>
-  <si>
-    <t>TipMultiple_i</t>
-  </si>
-  <si>
-    <t>TipRatio_i</t>
-  </si>
-  <si>
-    <t>IconName_s</t>
-  </si>
-  <si>
-    <t>普通青年</t>
-  </si>
-  <si>
-    <t>3_1</t>
-  </si>
-  <si>
-    <t>3_2</t>
-  </si>
-  <si>
-    <t>3_3_3_4_3_5</t>
-  </si>
-  <si>
-    <t>role_1001</t>
-  </si>
-  <si>
-    <t>cusNor1</t>
-  </si>
-  <si>
-    <t>30_60_10</t>
-  </si>
-  <si>
-    <t>2_3</t>
-  </si>
-  <si>
-    <t>client_1</t>
-  </si>
-  <si>
-    <t>作家</t>
-  </si>
-  <si>
-    <t>3_6</t>
-  </si>
-  <si>
-    <t>3_7</t>
-  </si>
-  <si>
-    <t>3_8_3_9_3_10</t>
-  </si>
-  <si>
-    <t>role_1002</t>
-  </si>
-  <si>
-    <t>cusNor2</t>
-  </si>
-  <si>
-    <t>client_2</t>
-  </si>
-  <si>
-    <t>时尚达人</t>
-  </si>
-  <si>
-    <t>3_11</t>
-  </si>
-  <si>
-    <t>3_12</t>
-  </si>
-  <si>
-    <t>3_13_3_14_3_15</t>
-  </si>
-  <si>
-    <t>role_1003</t>
-  </si>
-  <si>
-    <t>cusNor3</t>
-  </si>
-  <si>
-    <t>client_3</t>
-  </si>
-  <si>
-    <t>程序员</t>
-  </si>
-  <si>
-    <t>3_16</t>
-  </si>
-  <si>
-    <t>3_17</t>
-  </si>
-  <si>
-    <t>3_18_3_19_3_20</t>
-  </si>
-  <si>
-    <t>role_1004</t>
-  </si>
-  <si>
-    <t>cusNor4</t>
-  </si>
-  <si>
-    <t>client_4</t>
-  </si>
-  <si>
-    <t>运动员</t>
-  </si>
-  <si>
-    <t>3_21</t>
-  </si>
-  <si>
-    <t>3_22</t>
-  </si>
-  <si>
-    <t>3_23_3_24_3_25</t>
-  </si>
-  <si>
-    <t>role_1005</t>
-  </si>
-  <si>
-    <t>cusNor5</t>
-  </si>
-  <si>
-    <t>client_5</t>
-  </si>
-  <si>
-    <t>辣妈</t>
-  </si>
-  <si>
-    <t>3_26</t>
-  </si>
-  <si>
-    <t>3_27</t>
-  </si>
-  <si>
-    <t>3_28_3_29_3_30</t>
-  </si>
-  <si>
-    <t>role_1006</t>
-  </si>
-  <si>
-    <t>cusNor6</t>
-  </si>
-  <si>
-    <t>client_6</t>
-  </si>
-  <si>
-    <t>小女孩</t>
-  </si>
-  <si>
-    <t>3_31</t>
-  </si>
-  <si>
-    <t>3_32</t>
-  </si>
-  <si>
-    <t>3_33_3_34_3_35</t>
-  </si>
-  <si>
-    <t>role_1007</t>
-  </si>
-  <si>
-    <t>cusNor7</t>
-  </si>
-  <si>
-    <t>client_7</t>
-  </si>
-  <si>
-    <t>游戏制作人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>救生员</t>
-  </si>
-  <si>
-    <t>插画师</t>
-  </si>
-  <si>
-    <t>冒险家</t>
-  </si>
-  <si>
-    <t>货物配送员</t>
-  </si>
-  <si>
-    <t>理财师</t>
-  </si>
-  <si>
-    <t>全能歌手</t>
-  </si>
-  <si>
-    <t>算命先生</t>
-  </si>
-  <si>
-    <t>3_51</t>
-  </si>
-  <si>
-    <t>3_52</t>
-  </si>
-  <si>
-    <t>3_56</t>
-  </si>
-  <si>
-    <t>3_57</t>
-  </si>
-  <si>
-    <t>3_61</t>
-  </si>
-  <si>
-    <t>3_62</t>
-  </si>
-  <si>
-    <t>3_66</t>
-  </si>
-  <si>
-    <t>3_67</t>
-  </si>
-  <si>
-    <t>3_71</t>
-  </si>
-  <si>
-    <t>3_72</t>
-  </si>
-  <si>
-    <t>3_53_3_54_3_55</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_58_3_59_3_60</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_63_3_64_3_65</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_68_3_69_3_70</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_73_3_74_3_75</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_1011</t>
-  </si>
-  <si>
-    <t>role_1012</t>
-  </si>
-  <si>
-    <t>role_1013</t>
-  </si>
-  <si>
-    <t>role_1014</t>
-  </si>
-  <si>
-    <t>role_1015</t>
-  </si>
-  <si>
-    <t>cusNor11</t>
-  </si>
-  <si>
-    <t>cusNor12</t>
-  </si>
-  <si>
-    <t>cusNor13</t>
-  </si>
-  <si>
-    <t>cusNor14</t>
-  </si>
-  <si>
-    <t>cusNor15</t>
-  </si>
-  <si>
-    <t>client_11</t>
-  </si>
-  <si>
-    <t>client_13</t>
-  </si>
-  <si>
-    <t>client_14</t>
-  </si>
-  <si>
-    <t>client_15</t>
-  </si>
-  <si>
-    <t>role_1008</t>
-  </si>
-  <si>
-    <t>role_1009</t>
-  </si>
-  <si>
-    <t>role_1010</t>
-  </si>
-  <si>
-    <r>
       <t>正常显示的介绍(</t>
     </r>
     <r>
@@ -480,7 +79,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -491,71 +89,471 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名字</t>
+  </si>
+  <si>
+    <t>资源链接</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解锁条件（必须解锁的摊位I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>解锁条件（必须解锁的设施ID）</t>
+  </si>
+  <si>
+    <t>解锁条件（必须解锁的装饰ID）</t>
+  </si>
+  <si>
+    <t>必去的摊位id</t>
+  </si>
+  <si>
+    <t>二次拿餐盘的概率</t>
+  </si>
+  <si>
+    <t>三次那餐盘的概率</t>
+  </si>
+  <si>
+    <t>买完食物去餐厅的概率</t>
+  </si>
+  <si>
+    <t>给小费数量（餐费的倍数）</t>
+  </si>
+  <si>
+    <t>给小费的概率</t>
+  </si>
+  <si>
+    <t>图标名字</t>
+  </si>
+  <si>
+    <t>ID_i</t>
+  </si>
+  <si>
+    <t>bz_s</t>
+  </si>
+  <si>
+    <t>CreatWeight_i</t>
+  </si>
+  <si>
+    <t>Name_iam</t>
+  </si>
+  <si>
+    <t>LockIntro_iam</t>
+  </si>
+  <si>
+    <t>Intro_iam</t>
+  </si>
+  <si>
+    <t>RoleName_S</t>
+  </si>
+  <si>
+    <t>Path_s</t>
+  </si>
+  <si>
+    <t>StallCondit_iam</t>
+  </si>
+  <si>
+    <t>EquipCondit_iam</t>
+  </si>
+  <si>
+    <t>AdornCondit_iam</t>
+  </si>
+  <si>
+    <t>MustGoStall_i</t>
+  </si>
+  <si>
+    <t>SecondMlRatio_i</t>
+  </si>
+  <si>
+    <t>ThreeTimesMRatio_i</t>
+  </si>
+  <si>
+    <t>MealRatio_iam</t>
+  </si>
+  <si>
+    <t>BuyFoodNum_iam</t>
+  </si>
+  <si>
+    <t>TipMultiple_i</t>
+  </si>
+  <si>
+    <t>TipRatio_i</t>
+  </si>
+  <si>
+    <t>IconName_s</t>
+  </si>
+  <si>
+    <t>普通青年</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3_3_4_3_5</t>
+  </si>
+  <si>
+    <t>role_1001</t>
+  </si>
+  <si>
+    <t>cusNor1</t>
+  </si>
+  <si>
+    <t>30_60_10</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>client_1</t>
+  </si>
+  <si>
+    <t>作家</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8_3_9_3_10</t>
+  </si>
+  <si>
+    <t>role_1002</t>
+  </si>
+  <si>
+    <t>cusNor2</t>
+  </si>
+  <si>
+    <t>client_2</t>
+  </si>
+  <si>
+    <t>时尚达人</t>
+  </si>
+  <si>
+    <t>3_11</t>
+  </si>
+  <si>
+    <t>3_12</t>
+  </si>
+  <si>
+    <t>3_13_3_14_3_15</t>
+  </si>
+  <si>
+    <t>role_1003</t>
+  </si>
+  <si>
+    <t>cusNor3</t>
+  </si>
+  <si>
+    <t>client_3</t>
+  </si>
+  <si>
+    <t>程序员</t>
+  </si>
+  <si>
+    <t>3_16</t>
+  </si>
+  <si>
+    <t>3_17</t>
+  </si>
+  <si>
+    <t>3_18_3_19_3_20</t>
+  </si>
+  <si>
+    <t>role_1004</t>
+  </si>
+  <si>
+    <t>cusNor4</t>
+  </si>
+  <si>
+    <t>client_4</t>
+  </si>
+  <si>
+    <t>运动员</t>
+  </si>
+  <si>
+    <t>3_21</t>
+  </si>
+  <si>
+    <t>3_22</t>
+  </si>
+  <si>
+    <t>3_23_3_24_3_25</t>
+  </si>
+  <si>
+    <t>role_1005</t>
+  </si>
+  <si>
+    <t>cusNor5</t>
+  </si>
+  <si>
+    <t>client_5</t>
+  </si>
+  <si>
+    <t>辣妈</t>
+  </si>
+  <si>
+    <t>3_26</t>
+  </si>
+  <si>
+    <t>3_27</t>
+  </si>
+  <si>
+    <t>3_28_3_29_3_30</t>
+  </si>
+  <si>
+    <t>role_1006</t>
+  </si>
+  <si>
+    <t>cusNor6</t>
+  </si>
+  <si>
+    <t>client_6</t>
+  </si>
+  <si>
+    <t>小女孩</t>
+  </si>
+  <si>
+    <t>3_31</t>
+  </si>
+  <si>
+    <t>3_32</t>
+  </si>
+  <si>
+    <t>3_33_3_34_3_35</t>
+  </si>
+  <si>
+    <t>role_1007</t>
+  </si>
+  <si>
+    <t>cusNor7</t>
+  </si>
+  <si>
+    <t>client_7</t>
+  </si>
+  <si>
+    <t>游戏制作人</t>
   </si>
   <si>
     <t>3_36</t>
   </si>
   <si>
+    <t>3_37</t>
+  </si>
+  <si>
+    <t>3_38_3_39_3_40</t>
+  </si>
+  <si>
+    <t>role_1008</t>
+  </si>
+  <si>
+    <t>cusNor8</t>
+  </si>
+  <si>
+    <t>client_8</t>
+  </si>
+  <si>
+    <t>救生员</t>
+  </si>
+  <si>
     <t>3_41</t>
   </si>
   <si>
+    <t>3_42</t>
+  </si>
+  <si>
+    <t>3_43_3_44_3_45</t>
+  </si>
+  <si>
+    <t>role_1009</t>
+  </si>
+  <si>
+    <t>cusNor9</t>
+  </si>
+  <si>
+    <t>client_9</t>
+  </si>
+  <si>
+    <t>插画师</t>
+  </si>
+  <si>
     <t>3_46</t>
   </si>
   <si>
-    <t>3_37</t>
-  </si>
-  <si>
-    <t>3_42</t>
-  </si>
-  <si>
     <t>3_47</t>
   </si>
   <si>
-    <t>3_43_3_44_3_45</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3_38_3_39_3_40</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>3_48_3_49_3_50</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cusNor8</t>
-  </si>
-  <si>
-    <t>cusNor9</t>
+  </si>
+  <si>
+    <t>role_1010</t>
   </si>
   <si>
     <t>cusNor10</t>
   </si>
   <si>
-    <t>client_8</t>
-  </si>
-  <si>
-    <t>client_9</t>
-  </si>
-  <si>
     <t>client_10</t>
   </si>
   <si>
+    <t>冒险家</t>
+  </si>
+  <si>
+    <t>3_51</t>
+  </si>
+  <si>
+    <t>3_52</t>
+  </si>
+  <si>
+    <t>3_53_3_54_3_55</t>
+  </si>
+  <si>
+    <t>role_1011</t>
+  </si>
+  <si>
+    <t>cusNor11</t>
+  </si>
+  <si>
+    <t>client_11</t>
+  </si>
+  <si>
+    <t>货物配送员</t>
+  </si>
+  <si>
+    <t>3_56</t>
+  </si>
+  <si>
+    <t>3_57</t>
+  </si>
+  <si>
+    <t>3_58_3_59_3_60</t>
+  </si>
+  <si>
+    <t>role_1012</t>
+  </si>
+  <si>
+    <t>cusNor12</t>
+  </si>
+  <si>
     <t>client_12</t>
+  </si>
+  <si>
+    <t>理财师</t>
+  </si>
+  <si>
+    <t>3_61</t>
+  </si>
+  <si>
+    <t>3_62</t>
+  </si>
+  <si>
+    <t>3_63_3_64_3_65</t>
+  </si>
+  <si>
+    <t>role_1013</t>
+  </si>
+  <si>
+    <t>cusNor13</t>
+  </si>
+  <si>
+    <t>client_13</t>
+  </si>
+  <si>
+    <t>全能歌手</t>
+  </si>
+  <si>
+    <t>3_66</t>
+  </si>
+  <si>
+    <t>3_67</t>
+  </si>
+  <si>
+    <t>3_68_3_69_3_70</t>
+  </si>
+  <si>
+    <t>role_1014</t>
+  </si>
+  <si>
+    <t>cusNor14</t>
+  </si>
+  <si>
+    <t>client_14</t>
+  </si>
+  <si>
+    <t>算命先生</t>
+  </si>
+  <si>
+    <t>3_71</t>
+  </si>
+  <si>
+    <t>3_72</t>
+  </si>
+  <si>
+    <t>3_73_3_74_3_75</t>
+  </si>
+  <si>
+    <t>role_1015</t>
+  </si>
+  <si>
+    <t>cusNor15</t>
+  </si>
+  <si>
+    <t>client_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -567,14 +565,157 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -582,47 +723,215 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -630,9 +939,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -642,38 +1193,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -960,38 +1555,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="1" max="3" width="17.3796296296296" style="2" customWidth="1"/>
     <col min="4" max="6" width="29.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.3796296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.1296296296296" style="2" customWidth="1"/>
     <col min="9" max="9" width="37.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.3796296296296" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="20" style="2" customWidth="1"/>
     <col min="13" max="13" width="16.25" style="2" customWidth="1"/>
-    <col min="14" max="15" width="25.125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="25.1296296296296" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.8796296296296" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.3796296296296" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.6296296296296" style="2" customWidth="1"/>
     <col min="19" max="19" width="15" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="29.25" customHeight="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1007,132 +1602,132 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>127</v>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:19">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="P2" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="Q2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="1" spans="1:19">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="I3" s="1">
         <v>12001</v>
@@ -1153,10 +1748,10 @@
         <v>-1</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="1">
         <v>-1</v>
@@ -1165,33 +1760,33 @@
         <v>-1</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" s="1" customFormat="1" spans="1:19">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="I4" s="1">
         <v>12006</v>
@@ -1212,10 +1807,10 @@
         <v>-1</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="1">
         <v>-1</v>
@@ -1224,33 +1819,33 @@
         <v>-1</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" s="1" customFormat="1" spans="1:19">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="4">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="I5" s="1">
         <v>12014</v>
@@ -1271,10 +1866,10 @@
         <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="1">
         <v>3</v>
@@ -1283,33 +1878,33 @@
         <v>30</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" s="1" customFormat="1" spans="1:19">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="3" t="s">
         <v>64</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="I6" s="1">
         <v>12002</v>
@@ -1330,10 +1925,10 @@
         <v>30</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="1">
         <v>-1</v>
@@ -1342,33 +1937,33 @@
         <v>-1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="1" spans="1:19">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="4">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="I7" s="1">
         <v>12004</v>
@@ -1389,10 +1984,10 @@
         <v>-1</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="1">
         <v>-1</v>
@@ -1401,33 +1996,33 @@
         <v>-1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" s="1" customFormat="1" spans="1:19">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="4">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="I8" s="1">
         <v>12011</v>
@@ -1448,10 +2043,10 @@
         <v>10</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -1460,33 +2055,33 @@
         <v>15</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" s="1" customFormat="1" spans="1:19">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="4">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>83</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="3" t="s">
         <v>85</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="I9" s="1">
         <v>12008</v>
@@ -1507,10 +2102,10 @@
         <v>-1</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="1">
         <v>-1</v>
@@ -1519,33 +2114,33 @@
         <v>-1</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:19">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="3">
+        <v>88</v>
+      </c>
+      <c r="C10" s="4">
         <v>10</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>135</v>
+      <c r="D10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="I10" s="1">
         <v>12001</v>
@@ -1566,10 +2161,10 @@
         <v>-1</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="1">
         <v>-1</v>
@@ -1578,33 +2173,33 @@
         <v>-1</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:19">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="4">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>134</v>
+      <c r="D11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>138</v>
+        <v>99</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="I11" s="1">
         <v>12001</v>
@@ -1625,10 +2220,10 @@
         <v>-1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="1">
         <v>-1</v>
@@ -1637,33 +2232,33 @@
         <v>-1</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:19">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="4">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>136</v>
+      <c r="D12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>139</v>
+        <v>106</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I12" s="1">
         <v>12001</v>
@@ -1684,10 +2279,10 @@
         <v>-1</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q12" s="1">
         <v>-1</v>
@@ -1696,33 +2291,33 @@
         <v>-1</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:19">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4">
         <v>10</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>105</v>
+      <c r="D13" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="I13" s="1">
         <v>12001</v>
@@ -1743,10 +2338,10 @@
         <v>-1</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="1">
         <v>-1</v>
@@ -1755,33 +2350,33 @@
         <v>-1</v>
       </c>
       <c r="S13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="3">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>116</v>
+      <c r="H14" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="I14" s="1">
         <v>12001</v>
@@ -1802,10 +2397,10 @@
         <v>-1</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="1">
         <v>-1</v>
@@ -1814,33 +2409,33 @@
         <v>-1</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:19">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="3">
+        <v>123</v>
+      </c>
+      <c r="C15" s="4">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>107</v>
+      <c r="D15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="I15" s="1">
         <v>12001</v>
@@ -1861,10 +2456,10 @@
         <v>-1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="1">
         <v>-1</v>
@@ -1873,33 +2468,33 @@
         <v>-1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:19">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4">
         <v>10</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>108</v>
+      <c r="D16" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="I16" s="1">
         <v>12001</v>
@@ -1920,10 +2515,10 @@
         <v>-1</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="1">
         <v>-1</v>
@@ -1932,33 +2527,33 @@
         <v>-1</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:19">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="4">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>109</v>
+      <c r="D17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>119</v>
+        <v>141</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="I17" s="1">
         <v>12001</v>
@@ -1979,10 +2574,10 @@
         <v>-1</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="1">
         <v>-1</v>
@@ -1991,22 +2586,22 @@
         <v>-1</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F18" s="9"/>
+    <row r="18" spans="6:6">
+      <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F19" s="9"/>
+    <row r="19" spans="6:6">
+      <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F20" s="9"/>
+    <row r="20" spans="6:6">
+      <c r="F20" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>